--- a/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="92">
   <si>
     <t>DOLE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,44 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,26 +712,32 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1942200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1209600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1051100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4345900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>983800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,26 +747,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1843400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1107400</v>
+      </c>
+      <c r="F9" s="3">
         <v>966600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4012300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>911500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,26 +782,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>102200</v>
+      </c>
+      <c r="F10" s="3">
         <v>84500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>333600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>72300</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +836,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,23 +902,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F14" s="3">
         <v>5200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -897,8 +937,14 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,26 +988,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1969300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1188600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1038300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4278400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>976700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,26 +1019,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F18" s="3">
         <v>12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>67500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>7100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1054,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,25 +1073,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1036,26 +1104,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>22700</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>103200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>16000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,26 +1139,32 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,26 +1174,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F23" s="3">
         <v>11000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>59100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,26 +1209,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>18100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1244,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,26 +1279,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>41000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,26 +1314,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F27" s="3">
         <v>21300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>52500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>8300</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1349,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,25 +1489,31 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1384,26 +1524,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F33" s="3">
         <v>21300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>52500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>8300</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1559,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,26 +1594,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F35" s="3">
         <v>21300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>52500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>8300</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,31 +1629,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1669,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,13 +1703,15 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>358400</v>
+        <v>234200</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1560,42 +1734,54 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>5700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>426900</v>
+        <v>993300</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1618,13 +1804,19 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>139400</v>
+        <v>421800</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1647,13 +1839,19 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24000</v>
+        <v>66500</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1676,13 +1874,19 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>948600</v>
+        <v>1721500</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1705,13 +1909,19 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>518400</v>
+        <v>151300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1734,13 +1944,19 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>337700</v>
+        <v>1810800</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1763,13 +1979,19 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>289700</v>
+        <v>880600</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1792,8 +2014,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,13 +2084,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6800</v>
+        <v>165800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,13 +2154,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2101200</v>
+        <v>4729900</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,13 +2223,15 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>583300</v>
+        <v>696400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1992,13 +2254,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44200</v>
+        <v>79800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2021,13 +2289,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35900</v>
+        <v>659500</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2050,13 +2324,19 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>663400</v>
+        <v>1435700</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2079,13 +2359,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>556600</v>
+        <v>1262300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2108,13 +2394,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>185500</v>
+        <v>751700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,13 +2534,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1557800</v>
+        <v>3613200</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,13 +2724,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>477700</v>
+        <v>450200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,13 +2864,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>543400</v>
+        <v>1116700</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2934,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,26 +2974,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F81" s="3">
         <v>21300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>52500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>8300</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +3009,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,23 +3028,25 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>9500</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>36200</v>
       </c>
-      <c r="F83" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +3059,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,23 +3234,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-37700</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
         <v>144600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-45300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3269,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,23 +3288,25 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
         <v>-23200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3319,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,23 +3389,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
         <v>-25600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3424,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3579,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>247900</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100600</v>
       </c>
-      <c r="F100" s="3">
-        <v>47300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,23 +3614,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3">
         <v>12500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3151,23 +3649,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>197800</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
         <v>30900</v>
       </c>
-      <c r="F102" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3682,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="92">
   <si>
     <t>DOLE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44012</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -718,31 +718,34 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2251500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1942200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1209600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1051100</v>
       </c>
-      <c r="G8" s="3">
-        <v>4345900</v>
-      </c>
       <c r="H8" s="3">
-        <v>983800</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>1054700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1188400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1119100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -753,31 +756,34 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2187800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1843400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1107400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>966600</v>
       </c>
-      <c r="G9" s="3">
-        <v>4012300</v>
-      </c>
       <c r="H9" s="3">
-        <v>911500</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>967600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1099300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1033900</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -788,31 +794,34 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E10" s="3">
         <v>98800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>102200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>84500</v>
       </c>
-      <c r="G10" s="3">
-        <v>333600</v>
-      </c>
       <c r="H10" s="3">
-        <v>72300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>87100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>89100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>85200</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -823,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,31 +924,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>15900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5200</v>
       </c>
-      <c r="G14" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -943,8 +962,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1015,32 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2288300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1969300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1188600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1038300</v>
       </c>
-      <c r="G17" s="3">
-        <v>4278400</v>
-      </c>
       <c r="H17" s="3">
-        <v>976700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>1035500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1166300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1100000</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,31 +1051,34 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12800</v>
       </c>
-      <c r="G18" s="3">
-        <v>67500</v>
-      </c>
       <c r="H18" s="3">
-        <v>7100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>19200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>19100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,31 +1107,32 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>8100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-500</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-2700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>4500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1110,13 +1143,16 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-3500</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1125,13 +1161,13 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>103200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-13500</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>49200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,31 +1181,34 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E22" s="3">
         <v>9300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
-        <v>7900</v>
-      </c>
       <c r="H22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>2800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1180,31 +1219,34 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11000</v>
       </c>
-      <c r="G23" s="3">
-        <v>59100</v>
-      </c>
       <c r="H23" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>13700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>21100</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,31 +1257,34 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
-        <v>18100</v>
-      </c>
       <c r="H24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6900</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1333,34 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-24900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
-        <v>41000</v>
-      </c>
       <c r="H26" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>8600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>14300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1371,34 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21300</v>
       </c>
-      <c r="G27" s="3">
-        <v>52500</v>
-      </c>
       <c r="H27" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,31 +1561,34 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>500</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-4500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1530,31 +1599,34 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21300</v>
       </c>
-      <c r="G33" s="3">
-        <v>52500</v>
-      </c>
       <c r="H33" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>19600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1675,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21300</v>
       </c>
-      <c r="G35" s="3">
-        <v>52500</v>
-      </c>
       <c r="H35" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>19600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,36 +1713,39 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="I38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44012</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1675,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,17 +1790,18 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>250600</v>
+      </c>
+      <c r="E41" s="3">
         <v>234200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,17 +1826,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E42" s="3">
         <v>5700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1855,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1775,17 +1864,20 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>917400</v>
+      </c>
+      <c r="E43" s="3">
         <v>993300</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,17 +1902,20 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>410700</v>
+      </c>
+      <c r="E44" s="3">
         <v>421800</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,17 +1940,20 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E45" s="3">
         <v>66500</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,17 +1978,20 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1641300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1721500</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,17 +2016,20 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E47" s="3">
         <v>151300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,17 +2054,20 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1799500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1810800</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,17 +2092,20 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>879700</v>
+      </c>
+      <c r="E49" s="3">
         <v>880600</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2130,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,17 +2206,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>195700</v>
+      </c>
+      <c r="E52" s="3">
         <v>165800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,17 +2282,20 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4668000</v>
+      </c>
+      <c r="E54" s="3">
         <v>4729900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,17 +2354,18 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>696800</v>
+      </c>
+      <c r="E57" s="3">
         <v>696400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,17 +2390,20 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E58" s="3">
         <v>79800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,17 +2428,20 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>613200</v>
+      </c>
+      <c r="E59" s="3">
         <v>659500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,17 +2466,20 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1371200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1435700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,17 +2504,20 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1297800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1262300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2400,17 +2542,20 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>753600</v>
+      </c>
+      <c r="E62" s="3">
         <v>751700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,17 +2694,20 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3587400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3613200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,17 +2900,20 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>413300</v>
+      </c>
+      <c r="E72" s="3">
         <v>450200</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,17 +3052,20 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1080600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1116700</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,36 +3128,39 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="I80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44012</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2980,31 +3171,34 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21300</v>
       </c>
-      <c r="G81" s="3">
-        <v>52500</v>
-      </c>
       <c r="H81" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>19600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,13 +3227,14 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>30400</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -3045,13 +3243,13 @@
         <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>36200</v>
+        <v>-26700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>26700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3263,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,13 +3453,16 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>35600</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -3255,13 +3471,13 @@
         <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>144600</v>
+        <v>-182300</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>60500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,13 +3509,14 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-32600</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -3305,13 +3525,13 @@
         <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-23200</v>
+        <v>14500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-17400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3545,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,13 +3621,16 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-15400</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -3410,13 +3639,13 @@
         <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-25600</v>
+        <v>16500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-17000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,13 +3827,16 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-7800</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3600,13 +3845,13 @@
         <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>-100600</v>
+        <v>348400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>-30200</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3620,13 +3865,16 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>3900</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -3635,13 +3883,13 @@
         <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>12500</v>
+        <v>-15700</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>10000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3655,13 +3903,16 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>16300</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
@@ -3670,13 +3921,13 @@
         <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>30900</v>
+        <v>166900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>23300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
   <si>
     <t>DOLE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,204 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2360100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2245000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2251500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1942200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1209600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1051100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1054700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1188400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1119100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2190200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2110900</v>
+      </c>
+      <c r="F9" s="3">
         <v>2187800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1843400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1107400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>966600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>967600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1099300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1033900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>134100</v>
+      </c>
+      <c r="F10" s="3">
         <v>63700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>98800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>102200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>84500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>87100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>89100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>85200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +877,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +917,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,46 +961,58 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>15900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>8300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1049,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,84 +1068,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2305900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2234400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2288300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1969300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1188600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1038300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1035500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1166300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-36800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-27100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>21000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>19200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>22100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>19100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,73 +1174,81 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>8100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>98100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-13500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>49200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,122 +1258,146 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F22" s="3">
         <v>12800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>9300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-46800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-28300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>19600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>11000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>13700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>19900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>21100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-18200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,84 +1434,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-28600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-24900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>12600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>13300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>14300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-29300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-28500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>29200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>21300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>19600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1566,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1610,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1654,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,84 +1698,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-8100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-29300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-28500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>29200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>21300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>19600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,89 +1830,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-29300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-28500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>29200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>21300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>19600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1945,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,23 +1963,25 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>215900</v>
+      </c>
+      <c r="F41" s="3">
         <v>250600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>234200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,23 +2003,29 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F42" s="3">
         <v>6100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1858,32 +2038,38 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>880600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1025500</v>
+      </c>
+      <c r="F43" s="3">
         <v>917400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>993300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,23 +2091,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>410200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>457700</v>
+      </c>
+      <c r="F44" s="3">
         <v>410700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>421800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,23 +2135,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>77500</v>
+      </c>
+      <c r="F45" s="3">
         <v>56600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>66500</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,23 +2179,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1608700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1782200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1641300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1721500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,23 +2223,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>148300</v>
+      </c>
+      <c r="F47" s="3">
         <v>151800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>151300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,23 +2267,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1722100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1757600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1799500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1810800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,23 +2311,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>856200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>875100</v>
+      </c>
+      <c r="F49" s="3">
         <v>879700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>880600</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2355,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2399,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,23 +2443,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>215600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>210100</v>
+      </c>
+      <c r="F52" s="3">
         <v>195700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>165800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2487,14 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,23 +2531,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4544100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4773300</v>
+      </c>
+      <c r="F54" s="3">
         <v>4668000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4729900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2575,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2597,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,23 +2615,25 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>738600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>695500</v>
+      </c>
+      <c r="F57" s="3">
         <v>696800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>696400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,23 +2655,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>99700</v>
+      </c>
+      <c r="F58" s="3">
         <v>61200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>79800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,23 +2699,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>540900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>583300</v>
+      </c>
+      <c r="F59" s="3">
         <v>613200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>659500</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,23 +2743,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1380700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1378500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1371200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1435700</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,23 +2787,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1387900</v>
+      </c>
+      <c r="F61" s="3">
         <v>1297800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1262300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2545,23 +2831,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>729100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>745600</v>
+      </c>
+      <c r="F62" s="3">
         <v>753600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>751700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2875,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2919,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2963,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,23 +3007,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3442300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3676900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3587400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3613200</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +3051,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +3073,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +3113,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +3157,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3201,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,23 +3245,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>404300</v>
+      </c>
+      <c r="F72" s="3">
         <v>413300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>450200</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3289,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3333,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3377,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,23 +3421,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1101800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1096400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1080600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1116700</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3465,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,89 +3509,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-29300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-28500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>29200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>21300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>19600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,35 +3624,37 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F83" s="3">
         <v>30400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>-26700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>26700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3664,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3708,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3752,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3796,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3840,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,35 +3884,41 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>267200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-145300</v>
+      </c>
+      <c r="F89" s="3">
         <v>35600</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>-182300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>60500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3928,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,35 +3950,37 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-32600</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>14500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3990,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +4034,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,35 +4078,41 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15400</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>16500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +4122,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,16 +4144,18 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3716,8 +4184,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +4228,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4272,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,35 +4316,41 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-219100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>117600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7800</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>348400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>-30200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,35 +4360,41 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F101" s="3">
         <v>3900</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>-15700</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>10000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3906,35 +4404,41 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="F102" s="3">
         <v>16300</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>166900</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>23300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4446,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
   <si>
     <t>DOLE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,229 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2356200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2267500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2360100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2245000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2251500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1942200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1209600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1051100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1054700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1188400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1119100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2198900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2134100</v>
+      </c>
+      <c r="F9" s="3">
         <v>2190200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2110900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2187800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1843400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1107400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>966600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>967600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1099300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1033900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>157300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>133400</v>
+      </c>
+      <c r="F10" s="3">
         <v>169900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>134100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>63700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>98800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>102200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>84500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>87100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>89100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>85200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +904,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +950,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,52 +1000,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>15900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>8300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>5200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,96 +1121,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2324500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2249700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2305900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2234400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2288300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1969300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1188600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1038300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1035500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1166300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F18" s="3">
         <v>54200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-36800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>21000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>19200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>19100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,85 +1241,93 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F20" s="3">
         <v>10100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>8100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>98100</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45800</v>
+        <v>61700</v>
       </c>
       <c r="F21" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>129100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-27200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>49200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,140 +1337,164 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>11600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>12800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>9300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F23" s="3">
         <v>51300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-46800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-28300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>19600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>11000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>19900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>21100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-18200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6900</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1537,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>46300</v>
+      </c>
+      <c r="F26" s="3">
         <v>45300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-28600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-24900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>12600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>8600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>13300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>14300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F27" s="3">
         <v>41300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-29300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-28500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>29200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>21300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>19600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,96 +1837,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-8100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F33" s="3">
         <v>41300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-29300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-28500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>29200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>21300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>19600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1987,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F35" s="3">
         <v>41300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-29300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-28500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>29200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>21300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>19600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,29 +2136,31 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>228800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>221500</v>
+      </c>
+      <c r="F41" s="3">
         <v>238800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>215900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>250600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>234200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,29 +2182,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F42" s="3">
         <v>5700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>6100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>5700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,38 +2223,44 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>863700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>873100</v>
+      </c>
+      <c r="F43" s="3">
         <v>880600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1025500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>917400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>993300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,29 +2282,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>436900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>451900</v>
+      </c>
+      <c r="F44" s="3">
         <v>410200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>457700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>410700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>421800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2141,29 +2332,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>83900</v>
+      </c>
+      <c r="F45" s="3">
         <v>73400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>77500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>56600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>66500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,29 +2382,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1605500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1635500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1608700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1782200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1641300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1721500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,29 +2432,35 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>133300</v>
+      </c>
+      <c r="F47" s="3">
         <v>141500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>148300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>151800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>151300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,29 +2482,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1736100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1682100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1722100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1757600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1799500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1810800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,29 +2532,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>854700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>845900</v>
+      </c>
+      <c r="F49" s="3">
         <v>856200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>875100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>879700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>880600</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2361,8 +2582,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,29 +2682,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>254800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>231000</v>
+      </c>
+      <c r="F52" s="3">
         <v>215600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>210100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>195700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>165800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2732,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,29 +2782,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4591800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4527900</v>
+      </c>
+      <c r="F54" s="3">
         <v>4544100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4773300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4668000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4729900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,29 +2876,31 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>729600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>657100</v>
+      </c>
+      <c r="F57" s="3">
         <v>738600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>695500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>696800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>696400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,29 +2922,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>106100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>99300</v>
+      </c>
+      <c r="F58" s="3">
         <v>101200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>99700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>61200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>79800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,29 +2972,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>624800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>643800</v>
+      </c>
+      <c r="F59" s="3">
         <v>540900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>583300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>613200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>659500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,29 +3022,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1460500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1380700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1378500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1371200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1435700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,29 +3072,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1127300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1208200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1182000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1387900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1297800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1262300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2837,29 +3122,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>662300</v>
+      </c>
+      <c r="F62" s="3">
         <v>729100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>745600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>753600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>751700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,29 +3322,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3430700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3417400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3442300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3676900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3587400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3613200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,29 +3592,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>469200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>470100</v>
+      </c>
+      <c r="F72" s="3">
         <v>438000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>404300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>413300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>450200</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,29 +3792,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1161100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1110500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1101800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1096400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1080600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1116700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3892,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F81" s="3">
         <v>41300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-29300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-28500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>29200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>21300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>19600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,41 +4021,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>33800</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>31000</v>
+        <v>33100</v>
       </c>
       <c r="F83" s="3">
-        <v>30400</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>64800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>-41900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I83" s="3">
+        <v>42500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>-26700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>26700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +4067,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4317,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>267200</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-145300</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
-        <v>35600</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>121900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-161700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-182300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>60500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4367,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,41 +4391,43 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-22100</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-17300</v>
+        <v>-27200</v>
       </c>
       <c r="F91" s="3">
-        <v>-32600</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-39400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>48100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I91" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
         <v>14500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>-17400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4437,14 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,41 +4537,47 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-13500</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-2800</v>
+        <v>-26300</v>
       </c>
       <c r="F94" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-16300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-85600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3">
+        <v>98200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>16500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-17000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4587,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,28 +4611,30 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-7600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-15200</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-17100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4190,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,41 +4807,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-219100</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>117600</v>
+        <v>12600</v>
       </c>
       <c r="F100" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-101500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>118900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>348400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>-30200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,41 +4857,47 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-11800</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>-4100</v>
+        <v>-3100</v>
       </c>
       <c r="F101" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+        <v>-15900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3700</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I101" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15700</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>10000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4410,41 +4907,47 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>22800</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-34600</v>
+        <v>-17300</v>
       </c>
       <c r="F102" s="3">
-        <v>16300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-11800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-124700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>166900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>23300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4955,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="92">
   <si>
     <t>DOLE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,47 +737,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>2356200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2267500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2360100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2245000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2251500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1942200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1209600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1051100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1054700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1188400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1119100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,47 +790,50 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1810100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2198900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2134100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2190200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2110900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2187800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1843400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1107400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>966600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>967600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1099300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1033900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,47 +843,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>157300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>133400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>169900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>134100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>63700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>98800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>102200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>84500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>87100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>89100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,47 +1023,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>15900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,47 +1149,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>2324500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2249700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2305900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2234400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2288300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1969300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1188600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1038300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1035500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1166300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,47 +1200,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>31700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>54200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-36800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,47 +1276,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,35 +1339,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F21" s="3">
         <v>61700</v>
       </c>
-      <c r="F21" s="3">
-        <v>129100</v>
-      </c>
       <c r="G21" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>98100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45800</v>
       </c>
       <c r="I21" s="3">
-        <v>23500</v>
+        <v>-3500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-13500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>49200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,47 +1380,50 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E22" s="3">
         <v>19800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>12800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,47 +1433,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>19600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>19900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,47 +1486,50 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>-5700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-34800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-18200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,47 +1592,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>10600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>46300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>45300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-24900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,47 +1645,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>39800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>29200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,47 +1910,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,47 +1963,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>39800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>29200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,47 +2069,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>39800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>29200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,52 +2122,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,32 +2224,33 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>266200</v>
+      </c>
+      <c r="E41" s="3">
         <v>228800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>221500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>238800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>215900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>250600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>234200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,32 +2275,35 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E42" s="3">
         <v>5400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>6100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2319,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2238,32 +2328,35 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>871900</v>
+      </c>
+      <c r="E43" s="3">
         <v>863700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>873100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>880600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1025500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>917400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>993300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,32 +2381,35 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>405600</v>
+      </c>
+      <c r="E44" s="3">
         <v>436900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>451900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>410200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>457700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>410700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>421800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2338,32 +2434,35 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E45" s="3">
         <v>70700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>83900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>73400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>77500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>66500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,32 +2487,35 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2015700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1605500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1635500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1608700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1782200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1641300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1721500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,32 +2540,35 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E47" s="3">
         <v>140700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>133300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>141500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>148300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>151800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>151300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,32 +2593,35 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1422400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1736100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1682100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1722100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1757600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1799500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1810800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,32 +2646,35 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>858100</v>
+      </c>
+      <c r="E49" s="3">
         <v>854700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>845900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>856200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>875100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>879700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>880600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,32 +2805,35 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>231700</v>
+      </c>
+      <c r="E52" s="3">
         <v>254800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>231000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>215600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>210100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>195700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>165800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,32 +2911,35 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4669800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4591800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4527900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4544100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4773300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4668000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4729900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,32 +3008,33 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E57" s="3">
         <v>729600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>657100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>738600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>695500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>696800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>696400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,32 +3059,35 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E58" s="3">
         <v>106100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>99300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>101200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>99700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>61200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>79800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,32 +3112,35 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>531600</v>
+      </c>
+      <c r="E59" s="3">
         <v>624800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>643800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>540900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>583300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>613200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>659500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,32 +3165,35 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1734100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1460500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1380700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1378500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1371200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1435700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,32 +3218,35 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1127300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1208200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1182000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1387900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1297800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1262300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3128,32 +3271,35 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>584700</v>
+      </c>
+      <c r="E62" s="3">
         <v>685000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>662300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>729100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>745600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>753600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>751700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,32 +3483,35 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>3430700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3417400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3442300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3676900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3587400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3613200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,32 +3769,35 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>475700</v>
+      </c>
+      <c r="E72" s="3">
         <v>469200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>470100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>438000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>404300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>413300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>450200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,32 +3981,35 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1170600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1161100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1110500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1101800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1096400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1080600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1116700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,52 +4087,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,47 +4145,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>39800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>29200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,44 +4221,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>32300</v>
       </c>
       <c r="E83" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F83" s="3">
         <v>33100</v>
       </c>
-      <c r="F83" s="3">
-        <v>64800</v>
-      </c>
       <c r="G83" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>33800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>31000</v>
       </c>
       <c r="I83" s="3">
-        <v>42500</v>
+        <v>30400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>-26700</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>26700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>15200</v>
       </c>
       <c r="E89" s="3">
+        <v>117300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>121900</v>
-      </c>
       <c r="G89" s="3">
-        <v>-161700</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>267200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-145300</v>
       </c>
       <c r="I89" s="3">
-        <v>-19300</v>
+        <v>35600</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>-182300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>60500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,44 +4613,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-19900</v>
       </c>
       <c r="E91" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-27200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-39400</v>
-      </c>
       <c r="G91" s="3">
-        <v>48100</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-22100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-17300</v>
       </c>
       <c r="I91" s="3">
-        <v>-32800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3">
         <v>14500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>-17400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,44 +4770,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-14000</v>
       </c>
       <c r="E94" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-26300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-16300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-85600</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-13500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-2800</v>
       </c>
       <c r="I94" s="3">
-        <v>98200</v>
+        <v>-15400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>16500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-17000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,28 +4846,29 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="E96" s="3">
         <v>-7600</v>
       </c>
       <c r="F96" s="3">
-        <v>-15200</v>
+        <v>-7600</v>
       </c>
       <c r="G96" s="3">
-        <v>9500</v>
+        <v>-7600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="I96" s="3">
-        <v>-17100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>33500</v>
       </c>
       <c r="E100" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="F100" s="3">
         <v>12600</v>
       </c>
-      <c r="F100" s="3">
-        <v>-101500</v>
-      </c>
       <c r="G100" s="3">
-        <v>118900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-219100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>117600</v>
       </c>
       <c r="I100" s="3">
-        <v>6400</v>
+        <v>-7800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>348400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>-30200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,44 +5109,47 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>2700</v>
       </c>
       <c r="E101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-15900</v>
-      </c>
       <c r="G101" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>-11800</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-4100</v>
       </c>
       <c r="I101" s="3">
-        <v>-11700</v>
+        <v>3900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3">
         <v>-15700</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
         <v>10000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4913,8 +5162,11 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4922,35 +5174,35 @@
         <v>3</v>
       </c>
       <c r="E102" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17300</v>
       </c>
-      <c r="F102" s="3">
-        <v>-11800</v>
-      </c>
       <c r="G102" s="3">
-        <v>-124700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>22800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-34600</v>
       </c>
       <c r="I102" s="3">
-        <v>73700</v>
+        <v>16300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>166900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>23300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
   <si>
     <t>DOLE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,50 +741,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>2141200</v>
       </c>
       <c r="E8" s="3">
+        <v>1989200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2356200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2267500</v>
       </c>
-      <c r="G8" s="3">
-        <v>2360100</v>
-      </c>
       <c r="H8" s="3">
-        <v>2245000</v>
+        <v>2050900</v>
       </c>
       <c r="I8" s="3">
+        <v>1970200</v>
+      </c>
+      <c r="J8" s="3">
         <v>2251500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1942200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1209600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1051100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1054700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1188400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1119100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,50 +797,53 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1944600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1810100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2198900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2134100</v>
       </c>
-      <c r="G9" s="3">
-        <v>2190200</v>
-      </c>
       <c r="H9" s="3">
-        <v>2110900</v>
+        <v>1885400</v>
       </c>
       <c r="I9" s="3">
+        <v>1818400</v>
+      </c>
+      <c r="J9" s="3">
         <v>2187800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1843400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1107400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>966600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>967600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1099300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1033900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,50 +853,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>196600</v>
       </c>
       <c r="E10" s="3">
+        <v>179100</v>
+      </c>
+      <c r="F10" s="3">
         <v>157300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>133400</v>
       </c>
-      <c r="G10" s="3">
-        <v>169900</v>
-      </c>
       <c r="H10" s="3">
-        <v>134100</v>
+        <v>165500</v>
       </c>
       <c r="I10" s="3">
+        <v>151800</v>
+      </c>
+      <c r="J10" s="3">
         <v>63700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>98800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>102200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>84500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>87100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>89100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>85200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,41 +1055,41 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>15900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1176,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>2049500</v>
       </c>
       <c r="E17" s="3">
+        <v>1927000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2324500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2249700</v>
       </c>
-      <c r="G17" s="3">
-        <v>2305900</v>
-      </c>
       <c r="H17" s="3">
-        <v>2234400</v>
+        <v>1987800</v>
       </c>
       <c r="I17" s="3">
+        <v>1927200</v>
+      </c>
+      <c r="J17" s="3">
         <v>2288300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1969300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1188600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1038300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1035500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1166300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,50 +1230,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>91700</v>
       </c>
       <c r="E18" s="3">
+        <v>62200</v>
+      </c>
+      <c r="F18" s="3">
         <v>31700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17800</v>
       </c>
-      <c r="G18" s="3">
-        <v>54200</v>
-      </c>
       <c r="H18" s="3">
-        <v>10600</v>
+        <v>63100</v>
       </c>
       <c r="I18" s="3">
+        <v>43000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-36800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,50 +1310,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>3700</v>
       </c>
       <c r="E20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10900</v>
       </c>
-      <c r="G20" s="3">
-        <v>10100</v>
-      </c>
       <c r="H20" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I20" s="3">
         <v>4100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,47 +1364,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>121100</v>
       </c>
       <c r="E21" s="3">
+        <v>98500</v>
+      </c>
+      <c r="F21" s="3">
         <v>57800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>61700</v>
       </c>
-      <c r="G21" s="3">
-        <v>98100</v>
-      </c>
       <c r="H21" s="3">
-        <v>45800</v>
+        <v>106300</v>
       </c>
       <c r="I21" s="3">
+        <v>78000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-13500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>49200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,50 +1420,53 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E22" s="3">
         <v>21700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17100</v>
       </c>
-      <c r="G22" s="3">
-        <v>13000</v>
-      </c>
       <c r="H22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I22" s="3">
         <v>11600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>12800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1436,50 +1476,53 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E23" s="3">
         <v>44500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11500</v>
       </c>
-      <c r="G23" s="3">
-        <v>51300</v>
-      </c>
       <c r="H23" s="3">
-        <v>3100</v>
+        <v>61700</v>
       </c>
       <c r="I23" s="3">
+        <v>35400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-46800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>19600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,50 +1532,53 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>16600</v>
       </c>
       <c r="E24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-34800</v>
       </c>
-      <c r="G24" s="3">
-        <v>6000</v>
-      </c>
       <c r="H24" s="3">
-        <v>400</v>
+        <v>5300</v>
       </c>
       <c r="I24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J24" s="3">
         <v>-18200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1644,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>59100</v>
       </c>
       <c r="E26" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F26" s="3">
         <v>10600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46300</v>
       </c>
-      <c r="G26" s="3">
-        <v>45300</v>
-      </c>
       <c r="H26" s="3">
-        <v>2700</v>
+        <v>56400</v>
       </c>
       <c r="I26" s="3">
+        <v>28100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-28600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-24900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>14300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1700,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>53700</v>
       </c>
       <c r="E27" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F27" s="3">
         <v>6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39800</v>
       </c>
-      <c r="G27" s="3">
-        <v>41300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-1400</v>
+        <v>52500</v>
       </c>
       <c r="I27" s="3">
+        <v>23800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-29300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,31 +1812,34 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-11400</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-14500</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-11200</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-25200</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,50 +1980,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-3700</v>
       </c>
       <c r="E32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F32" s="3">
         <v>7100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10900</v>
       </c>
-      <c r="G32" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H32" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,50 +2036,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>42300</v>
       </c>
       <c r="E33" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F33" s="3">
         <v>6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2148,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>42300</v>
       </c>
       <c r="E35" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F35" s="3">
         <v>6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2204,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,35 +2311,36 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E41" s="3">
         <v>266200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>228800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>221500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>238800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>215900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>250600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>234200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,35 +2365,38 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E42" s="3">
         <v>5600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>6100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2412,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2331,35 +2421,38 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>882500</v>
+      </c>
+      <c r="E43" s="3">
         <v>871900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>863700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>873100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>880600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1025500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>917400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>993300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,35 +2477,38 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>352100</v>
+      </c>
+      <c r="E44" s="3">
         <v>405600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>436900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>451900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>410200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>457700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>410700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>421800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,35 +2533,38 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81800</v>
+        <v>488300</v>
       </c>
       <c r="E45" s="3">
+        <v>466400</v>
+      </c>
+      <c r="F45" s="3">
         <v>70700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>83900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>73400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>77500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>56600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>66500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,35 +2589,38 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1959600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2015700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1605500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1635500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1608700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1782200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1641300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1721500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,35 +2645,38 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E47" s="3">
         <v>142000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>140700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>133300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>141500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>148300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>151800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>151300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,35 +2701,38 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1423100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1422400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1736100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1682100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1722100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1757600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1799500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1810800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,35 +2757,38 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>854800</v>
+      </c>
+      <c r="E49" s="3">
         <v>858100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>854700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>845900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>856200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>875100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>879700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>880600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,35 +2925,38 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>238600</v>
+      </c>
+      <c r="E52" s="3">
         <v>231700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>254800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>231000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>215600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>210100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>195700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>165800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,35 +3037,38 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4618500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4669800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4591800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4527900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4544100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4773300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4668000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4729900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,35 +3139,36 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>651000</v>
+      </c>
+      <c r="E57" s="3">
         <v>624000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>729600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>657100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>738600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>695500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>696800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>696400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,35 +3193,38 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>288500</v>
+      </c>
+      <c r="E58" s="3">
         <v>267000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>106100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>99300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>101200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>99700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>61200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>79800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,35 +3249,38 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>531600</v>
+        <v>802900</v>
       </c>
       <c r="E59" s="3">
+        <v>843100</v>
+      </c>
+      <c r="F59" s="3">
         <v>624800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>643800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>540900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>583300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>613200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>659500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,35 +3305,38 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1742300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1734100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1460500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1380700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1378500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1371200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1435700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,35 +3361,38 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>930400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1014000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1127300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1208200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1182000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1387900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1297800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1262300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3274,35 +3417,38 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>575100</v>
+      </c>
+      <c r="E62" s="3">
         <v>584700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>685000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>662300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>729100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>745600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>753600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>751700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,35 +3641,38 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>3409800</v>
       </c>
       <c r="E66" s="3">
+        <v>3499200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3430700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3417400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3442300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3676900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3587400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3613200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,35 +3943,38 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>510300</v>
+      </c>
+      <c r="E72" s="3">
         <v>475700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>469200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>470100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>438000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>404300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>413300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>450200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,35 +4167,38 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1208700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1170600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1161100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1110500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1101800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1096400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1080600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1116700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4279,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4340,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>42300</v>
       </c>
       <c r="E81" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F81" s="3">
         <v>6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,47 +4420,48 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E83" s="3">
         <v>32300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>33200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
         <v>-26700</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>26700</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4754,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E89" s="3">
         <v>15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>117300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>267200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-145300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>-182300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>60500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,47 +4834,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-24100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
         <v>14500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3">
         <v>-17400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,47 +5000,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>16500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-17000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4868,7 +5102,7 @@
         <v>-7600</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,47 +5302,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="E100" s="3">
         <v>33500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-84400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-219100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>117600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>348400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>-30200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,47 +5358,50 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3900</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
         <v>-15700</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3">
         <v>10000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5165,47 +5414,50 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-35100</v>
       </c>
       <c r="E102" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F102" s="3">
         <v>7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-34600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>166900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>23300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DOLE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="92">
   <si>
     <t>DOLE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,53 +745,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2042700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2141200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1989200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2356200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2267500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2050900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1970200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2251500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1942200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1209600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1051100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1054700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1188400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1119100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,53 +804,56 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1876300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1944600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1810100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2198900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2134100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1885400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1818400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2187800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1843400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1107400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>966600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>967600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1099300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1033900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,53 +863,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E10" s="3">
         <v>196600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>179100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>157300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>133400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>165500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>151800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>63700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>98800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>102200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>84500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>87100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>89100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>85200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,8 +922,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1063,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,41 +1078,41 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>15900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1122,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1203,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>2049500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1927000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2324500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2249700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1987800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1927200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2288300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1969300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1188600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1038300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1035500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1166300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,53 +1260,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>91700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>31700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>63100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-36800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>22100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>19100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1319,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,53 +1344,54 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,50 +1401,53 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>121100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>98500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>57800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>61700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>106300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>78000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-13500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>49200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,53 +1460,56 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E22" s="3">
         <v>19700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>17100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,53 +1519,56 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E23" s="3">
         <v>75700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>61700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-46800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,53 +1578,56 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-34800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1637,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1696,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>59100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>46300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>28100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>14300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,53 +1755,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>53700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>52500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>29200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>21300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1814,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,34 +1873,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E29" s="3">
         <v>-11400</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-14500</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-11200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-25200</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1871,8 +1932,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,53 +2050,56 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,53 +2109,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>42300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>21300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2168,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,53 +2227,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>42300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>21300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,58 +2286,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2350,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,38 +2398,39 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E41" s="3">
         <v>231100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>266200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>228800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>221500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>238800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>215900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>250600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>234200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2455,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2377,29 +2467,29 @@
         <v>5700</v>
       </c>
       <c r="E42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F42" s="3">
         <v>5600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>6100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2505,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2424,38 +2514,41 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>814700</v>
+      </c>
+      <c r="E43" s="3">
         <v>882500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>871900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>863700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>873100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>880600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1025500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>917400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>993300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,38 +2573,41 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>366700</v>
+      </c>
+      <c r="E44" s="3">
         <v>352100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>405600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>436900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>451900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>410200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>457700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>410700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>421800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,38 +2632,41 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>517600</v>
+      </c>
+      <c r="E45" s="3">
         <v>488300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>466400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>83900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>73400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>77500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>56600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,38 +2691,41 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1922200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1959600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2015700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1605500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1635500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1608700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1782200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1641300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1721500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,38 +2750,41 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E47" s="3">
         <v>142400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>142000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>140700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>133300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>141500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>148300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>151800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>151300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,38 +2809,41 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1398400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1423100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1422400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1736100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1682100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1722100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1757600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1799500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1810800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,38 +2868,41 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>850500</v>
+      </c>
+      <c r="E49" s="3">
         <v>854800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>858100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>854700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>845900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>856200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>875100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>879700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>880600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +2927,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,38 +3045,41 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>223600</v>
+      </c>
+      <c r="E52" s="3">
         <v>238600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>231700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>254800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>231000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>215600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>210100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>195700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>165800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3104,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,38 +3163,41 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4537700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4618500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4669800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4591800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4527900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4544100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4773300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4668000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4729900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3222,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,38 +3270,39 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>619900</v>
+      </c>
+      <c r="E57" s="3">
         <v>651000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>624000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>729600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>657100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>738600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>695500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>696800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>696400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,38 +3327,41 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>269700</v>
+      </c>
+      <c r="E58" s="3">
         <v>288500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>267000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>106100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>99300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>101200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>99700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>61200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>79800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3252,38 +3386,41 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>830600</v>
+      </c>
+      <c r="E59" s="3">
         <v>802900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>843100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>624800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>643800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>540900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>583300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>613200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>659500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,38 +3445,41 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1720200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1742300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1734100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1460500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1380700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1378500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1371200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1435700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3364,38 +3504,41 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>859700</v>
+      </c>
+      <c r="E61" s="3">
         <v>930400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1014000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1127300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1208200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1182000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1387900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1297800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1262300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3420,38 +3563,41 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>560800</v>
+      </c>
+      <c r="E62" s="3">
         <v>575100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>584700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>685000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>662300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>729100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>745600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>753600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>751700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,38 +3799,41 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>3409800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3499200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3430700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3417400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3442300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3676900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3587400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3613200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +3858,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,38 +4117,41 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>547900</v>
+      </c>
+      <c r="E72" s="3">
         <v>510300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>475700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>469200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>470100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>438000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>404300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>413300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>450200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4176,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,38 +4353,41 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1232200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1208700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1170600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1161100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1110500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1101800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1096400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1080600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1116700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4412,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4471,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,53 +4535,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>42300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>21300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4594,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,50 +4619,51 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E83" s="3">
         <v>25700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>33800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>31000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
         <v>-26700</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
         <v>26700</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4477,8 +4676,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,50 +4971,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>58600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>117300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>267200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-145300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>35600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>-182300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
         <v>60500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5030,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,50 +5055,51 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3">
         <v>14500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3">
         <v>-17400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5112,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,50 +5230,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>16500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-17000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5289,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,13 +5314,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="E96" s="3">
         <v>-7600</v>
@@ -5105,7 +5339,7 @@
         <v>-7600</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5137,8 +5371,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,50 +5548,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-105900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-86400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>33500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-84400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-219100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>117600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>348400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
         <v>-30200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,50 +5607,53 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3">
         <v>-15700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3">
         <v>10000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5417,50 +5666,53 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-34600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>166900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>23300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5723,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
